--- a/cypress/fixtures/User_Page.xlsx
+++ b/cypress/fixtures/User_Page.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="47">
   <si>
     <t>numerical order</t>
   </si>
@@ -125,12 +125,6 @@
     <t>Create user with the name be blanked</t>
   </si>
   <si>
-    <t>Create user with the username contain special characters</t>
-  </si>
-  <si>
-    <t>Mỹ Thu@t</t>
-  </si>
-  <si>
     <t>Create user with the username less than 5 characters</t>
   </si>
   <si>
@@ -159,9 +153,6 @@
   </si>
   <si>
     <t>Create user with the password be blanked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N </t>
   </si>
   <si>
     <t>Create user witrh the password &amp; repassword be not the same</t>
@@ -172,10 +163,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -209,6 +200,126 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -216,126 +327,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -346,13 +337,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,7 +457,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,13 +481,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,139 +511,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,6 +528,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -551,21 +551,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,11 +594,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,8 +612,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,124 +633,136 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -768,22 +771,10 @@
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1380,10 +1371,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5454545454545" defaultRowHeight="14.5"/>
@@ -1641,7 +1632,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>9</v>
@@ -1673,16 +1664,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>10</v>
@@ -1719,8 +1710,8 @@
       <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>42</v>
+      <c r="E9" t="s">
+        <v>14</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>10</v>
@@ -1749,7 +1740,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -1757,11 +1748,11 @@
       <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>10</v>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2">
+        <v>12345678</v>
       </c>
       <c r="G10" t="s">
         <v>32</v>
@@ -1787,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -1798,8 +1789,8 @@
       <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="2">
-        <v>12345678</v>
+      <c r="F11" t="s">
+        <v>14</v>
       </c>
       <c r="G11" t="s">
         <v>32</v>
@@ -1825,7 +1816,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -1836,8 +1827,8 @@
       <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F12" t="s">
-        <v>14</v>
+      <c r="F12" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="G12" t="s">
         <v>32</v>
@@ -1848,11 +1839,11 @@
       <c r="I12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="1">
-        <v>7654321</v>
-      </c>
-      <c r="K12" s="1">
-        <v>7654321</v>
+      <c r="J12">
+        <v>54321</v>
+      </c>
+      <c r="K12">
+        <v>54321</v>
       </c>
       <c r="L12" t="s">
         <v>14</v>
@@ -1863,7 +1854,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -1886,11 +1877,11 @@
       <c r="I13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J13">
-        <v>54321</v>
-      </c>
-      <c r="K13">
-        <v>54321</v>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s">
+        <v>14</v>
       </c>
       <c r="L13" t="s">
         <v>14</v>
@@ -1901,7 +1892,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -1924,51 +1915,13 @@
       <c r="I14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J14" t="s">
-        <v>48</v>
-      </c>
-      <c r="K14" t="s">
-        <v>48</v>
+      <c r="J14" s="1">
+        <v>7654321</v>
+      </c>
+      <c r="K14">
+        <v>54321</v>
       </c>
       <c r="L14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="1">
-        <v>7654321</v>
-      </c>
-      <c r="K15">
-        <v>54321</v>
-      </c>
-      <c r="L15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1976,16 +1929,15 @@
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="dtpanh20101997@gmail.com"/>
     <hyperlink ref="E6" r:id="rId1" display="dtpanh20101997@gmail.com"/>
+    <hyperlink ref="E5" r:id="rId1" display="dtpanh20101997@gmail.com"/>
     <hyperlink ref="E7" r:id="rId1" display="dtpanh20101997@gmail.com"/>
-    <hyperlink ref="E5" r:id="rId1" display="dtpanh20101997@gmail.com"/>
-    <hyperlink ref="E8" r:id="rId1" display="dtpanh20101997@gmail.com"/>
-    <hyperlink ref="E9" r:id="rId2" display="dtpanh20101997@gmail" tooltip="mailto:dtpanh20101997@gmail"/>
+    <hyperlink ref="E8" r:id="rId2" display="dtpanh20101997@gmail" tooltip="mailto:dtpanh20101997@gmail"/>
+    <hyperlink ref="E10" r:id="rId1" display="dtpanh20101997@gmail.com"/>
     <hyperlink ref="E11" r:id="rId1" display="dtpanh20101997@gmail.com"/>
+    <hyperlink ref="E3" r:id="rId1" display="dtpanh20101997@gmail.com"/>
     <hyperlink ref="E12" r:id="rId1" display="dtpanh20101997@gmail.com"/>
-    <hyperlink ref="E3" r:id="rId1" display="dtpanh20101997@gmail.com"/>
     <hyperlink ref="E13" r:id="rId1" display="dtpanh20101997@gmail.com"/>
     <hyperlink ref="E14" r:id="rId1" display="dtpanh20101997@gmail.com"/>
-    <hyperlink ref="E15" r:id="rId1" display="dtpanh20101997@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
